--- a/data/trans_bre/P1419-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1419-Edad-trans_bre.xlsx
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6163199156148744</v>
+        <v>0.5925189510492518</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr"/>
@@ -680,12 +680,12 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.97849779435192</v>
+        <v>3.195809836214657</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>4.776056701840351</v>
+        <v>4.936525953352438</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>0.5041944807272505</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.388772942090026</v>
+        <v>1.388772942090025</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>3.339843892704169</v>
@@ -725,7 +725,7 @@
         <v>2.821029232827844</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2.700400176470927</v>
+        <v>2.700400176470926</v>
       </c>
     </row>
     <row r="8">
@@ -736,26 +736,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.949965584885136</v>
+        <v>1.899671620453651</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.08869245141945528</v>
+        <v>-0.1238657755273321</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.1795625625335338</v>
+        <v>-0.165778661165658</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.006678423377915423</v>
+        <v>0.1494105156298268</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7516374068053904</v>
+        <v>0.9300851724518564</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4768077927876649</v>
+        <v>-0.4596803948309006</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.3695450752685057</v>
+        <v>-0.3365640281144794</v>
       </c>
     </row>
     <row r="9">
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.029002581571039</v>
+        <v>5.845575002523444</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.895053919196486</v>
+        <v>1.852017203780743</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.379059011693682</v>
+        <v>1.460792262984232</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.92296425167942</v>
+        <v>2.907755498554071</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>10.05186494341905</v>
+        <v>10.48000757484251</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
@@ -805,7 +805,7 @@
         <v>1.648451441350843</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.193663194031657</v>
+        <v>4.193663194031659</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>3.610349212024854</v>
@@ -828,26 +828,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.658086155828806</v>
+        <v>3.614433149645444</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.923725471663955</v>
+        <v>2.904601846431297</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6763657176037792</v>
+        <v>0.6374725753719399</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.230917558690576</v>
+        <v>2.28754327512081</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.232096305205139</v>
+        <v>1.257564276449868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.059104823798199</v>
+        <v>1.223497988447923</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>0.6120291101924696</v>
+        <v>0.576926229992347</v>
       </c>
     </row>
     <row r="12">
@@ -858,26 +858,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.819401752561476</v>
+        <v>8.132047670408907</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.870190213493244</v>
+        <v>6.910312678655584</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.870647164170153</v>
+        <v>2.877763389588602</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.258145283706497</v>
+        <v>6.365944366749471</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>8.608129219212548</v>
+        <v>8.990435396578615</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>19.01959481821655</v>
+        <v>28.1448720461656</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>5.159588776109303</v>
+        <v>5.279817744005372</v>
       </c>
     </row>
     <row r="13">
@@ -901,7 +901,7 @@
         <v>2.858264599572543</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.707906725433538</v>
+        <v>8.70790672543354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.679749733695205</v>
@@ -913,7 +913,7 @@
         <v>1.011553010567524</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>2.368467988655568</v>
+        <v>2.368467988655569</v>
       </c>
     </row>
     <row r="14">
@@ -924,28 +924,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.193347521732959</v>
+        <v>3.13909013301263</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.687973019344715</v>
+        <v>2.861468305431313</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6854672281441141</v>
+        <v>0.6671731496928666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.318405480746769</v>
+        <v>6.501112476156109</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5117629890125597</v>
+        <v>0.5127593851804439</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.96200179090995</v>
+        <v>0.9480280159782424</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1532954680656355</v>
+        <v>0.1407573280898426</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1.235869131475045</v>
+        <v>1.236797140704382</v>
       </c>
     </row>
     <row r="15">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.99946962720662</v>
+        <v>9.567566152170798</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.456316561976641</v>
+        <v>7.361550507459058</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.393804290693602</v>
+        <v>5.191644550047727</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.11082879482946</v>
+        <v>11.27697657445722</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.552950882060838</v>
+        <v>3.578405052177549</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8.846456963195525</v>
+        <v>9.202622667272378</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.101612702030765</v>
+        <v>2.898032661841923</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4.561083528839491</v>
+        <v>4.2638521756943</v>
       </c>
     </row>
     <row r="16">
@@ -1001,7 +1001,7 @@
         <v>7.43077092045767</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.688074328847063</v>
+        <v>6.68807432884707</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.64623360466875</v>
@@ -1013,7 +1013,7 @@
         <v>3.476646793481858</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9711505315421773</v>
+        <v>0.9711505315421786</v>
       </c>
     </row>
     <row r="17">
@@ -1024,28 +1024,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.197650526568594</v>
+        <v>5.180814557360127</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.624464171179348</v>
+        <v>8.771891909310508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.340281948864162</v>
+        <v>4.195193226646646</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.827622495215487</v>
+        <v>3.765581245972971</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6597427879303879</v>
+        <v>0.6291001353584416</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>3.545689124892554</v>
+        <v>3.393383697031446</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.187418734299553</v>
+        <v>1.210254517348072</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4366225402935914</v>
+        <v>0.4222374118069185</v>
       </c>
     </row>
     <row r="18">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.89377510660319</v>
+        <v>14.00416265918363</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.27802242520439</v>
+        <v>15.73186043124303</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.72103577330961</v>
+        <v>10.49809381121058</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.495350987882331</v>
+        <v>9.664389980994219</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.727523251744635</v>
+        <v>3.212215952558851</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>28.0838780347925</v>
+        <v>29.06501282365625</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8.369163934181282</v>
+        <v>9.468842119925661</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.714411372018538</v>
+        <v>1.770541103120541</v>
       </c>
     </row>
     <row r="19">
@@ -1101,7 +1101,7 @@
         <v>11.29599743199753</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9.71824998044028</v>
+        <v>9.718249980440277</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>2.405314652414718</v>
@@ -1113,7 +1113,7 @@
         <v>3.662591058317971</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.616564671015502</v>
+        <v>1.616564671015501</v>
       </c>
     </row>
     <row r="20">
@@ -1124,28 +1124,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10.25997361697386</v>
+        <v>10.5998704096696</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8.519131446669684</v>
+        <v>8.320581559442195</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.433337020185737</v>
+        <v>7.264303252551096</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.674690465714026</v>
+        <v>6.358539907659306</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.181020865253521</v>
+        <v>1.117972845154638</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.608584067765222</v>
+        <v>1.624464088725337</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.506873091594871</v>
+        <v>1.36893643459177</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.8049393476708581</v>
+        <v>0.8166014915896014</v>
       </c>
     </row>
     <row r="21">
@@ -1156,28 +1156,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>20.39303073423242</v>
+        <v>20.90787930938718</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.91247634775461</v>
+        <v>16.84177336169218</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.0359980967645</v>
+        <v>15.89146323652099</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.88318858753147</v>
+        <v>12.91613213783249</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.881364432023209</v>
+        <v>4.855292593006205</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>10.5912739417174</v>
+        <v>10.27588313521044</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>8.691659577828446</v>
+        <v>9.216309503260328</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.909704082938117</v>
+        <v>3.000987287615067</v>
       </c>
     </row>
     <row r="22">
@@ -1213,7 +1213,7 @@
         <v>2.699971383069313</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.669389075237837</v>
+        <v>1.669389075237836</v>
       </c>
     </row>
     <row r="23">
@@ -1224,28 +1224,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.779277406152294</v>
+        <v>9.556992515175828</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.32974491531537</v>
+        <v>16.53992012531828</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.248786844507589</v>
+        <v>6.649769868721984</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10.866717605775</v>
+        <v>10.23069332957891</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7952456871632226</v>
+        <v>0.731381560730355</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2.968537722627776</v>
+        <v>2.968934273740594</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.043833023318491</v>
+        <v>0.9310775897895187</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.9271114909812547</v>
+        <v>0.8611403591434815</v>
       </c>
     </row>
     <row r="24">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.40417779747809</v>
+        <v>22.99672422463905</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>27.35523524123144</v>
+        <v>26.93331455319293</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.03358252354834</v>
+        <v>16.65405000112936</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.50470101292915</v>
+        <v>18.77428529528758</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>4.08786789570142</v>
+        <v>3.775385152742218</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>20.20531414590853</v>
+        <v>18.9007729288466</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>6.366806761486168</v>
+        <v>6.288597124055873</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.696080706600386</v>
+        <v>2.772121887085569</v>
       </c>
     </row>
     <row r="25">
@@ -1324,28 +1324,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>6.564046803809926</v>
+        <v>6.558476996694306</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.256343986256422</v>
+        <v>6.287828590998358</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.636728199414768</v>
+        <v>3.656158277035821</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.002446280177197</v>
+        <v>6.053961326438075</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.875235963584481</v>
+        <v>1.838985328247398</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>3.979397797976016</v>
+        <v>4.086422462020176</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.887443471997579</v>
+        <v>1.935489724788112</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.359234914473283</v>
+        <v>1.368734828333019</v>
       </c>
     </row>
     <row r="27">
@@ -1356,28 +1356,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.094755432116983</v>
+        <v>9.115717063216163</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.363214484514122</v>
+        <v>8.247080398265897</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.502135164468615</v>
+        <v>5.662327245875969</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.027512286753009</v>
+        <v>8.062676401334535</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.490625525946128</v>
+        <v>3.502076004546864</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9.192487133788337</v>
+        <v>8.928805580510591</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>4.372793807676143</v>
+        <v>4.560353157206099</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.392375701919847</v>
+        <v>2.362402828893258</v>
       </c>
     </row>
     <row r="28">
